--- a/assets/video/FORM_POA_N°4_ACTIVIDADES.xlsx
+++ b/assets/video/FORM_POA_N°4_ACTIVIDADES.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIIPLAS2021\siiplas_2021\assets\video\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="898"/>
   </bookViews>
@@ -135,12 +140,12 @@
     <definedName name="monto">#REF!</definedName>
     <definedName name="monto_idh">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>CRONOGRAMA</t>
   </si>
@@ -199,14 +204,7 @@
     <t>UNIDAD RESPONSABLE</t>
   </si>
   <si>
-    <t>OBJETIVO DE GESTIÓN</t>
-  </si>
-  <si>
     <t>COD OP</t>
-  </si>
-  <si>
-    <t>PEI
-COD. AE</t>
   </si>
   <si>
     <t>OBJETIVO REGIONAL (OPERACIÓN)</t>
@@ -215,202 +213,7 @@
     <t>ACTIVIDAD</t>
   </si>
   <si>
-    <t>COD OG</t>
-  </si>
-  <si>
-    <t>COD OR</t>
-  </si>
-  <si>
     <t>COD ACT</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN ANUAL DEL PLAN OPERATIVO GESTIÓN 2020</t>
-  </si>
-  <si>
-    <t>EVALUACION DE GESTION 2020</t>
-  </si>
-  <si>
-    <t>DPTO. NAL. DE PLANIFICACION</t>
-  </si>
-  <si>
-    <t>Nº DE EVALUACIONES AL POA 2020</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN TRIMESTRAL DEL PLAN OPERATIVO ANUAL 2021</t>
-  </si>
-  <si>
-    <t>EVALUACION TRIMESTRAL DEL POA 2021</t>
-  </si>
-  <si>
-    <t>Nº DE EVALUACIONES TRIMESTRALES AL POA 2021 REALIZADOS</t>
-  </si>
-  <si>
-    <t>FORMULACIÓN Y APROBACIÓN DEL PLAN OPERATIVO ANUAL GESTIÓN 2022</t>
-  </si>
-  <si>
-    <t>PLANIFICACION DE CORTO PLAZO POA GESTION 2022</t>
-  </si>
-  <si>
-    <t>Nº POA 2022 APROBADO</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN FINAL DEL PLAN ESTRATÉGICO INSTITUCIONAL 2016 - 2020 DE LA C.N.S</t>
-  </si>
-  <si>
-    <t>EVALUACION DE CUMPLIMIENTO DE METAS DE MEDIANO PLAZO PEI 2016 - 2020</t>
-  </si>
-  <si>
-    <t>Nº DE EVALUACIONES AL PEI 2016 - 2020 REALIZADOS</t>
-  </si>
-  <si>
-    <t>COMPATIBILIZACION DEL  PLAN ESTRATEGICO INSTITUCIONAL 2021-2025</t>
-  </si>
-  <si>
-    <t>PLANIFICACION DE MEDIANO PLAZO FORMULADA 2021 -2025</t>
-  </si>
-  <si>
-    <t>Nº DE PEI COMPATIBILIZADOS</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN DE LA APLICACIÓN DEL SUBSISTEMA DE SEGUIMIENTO Y EVALUACIÓN DEL POA EN REGIONALES.Y OFICINA NACIONAL</t>
-  </si>
-  <si>
-    <t>REGIONALES EVALUADAS EN LA APLICACIÓN DEL SUBSISTEMA DE SEGUIMIENTO Y EVALUACIÓN</t>
-  </si>
-  <si>
-    <t>N° DE REGIONALES EVALUADAS</t>
-  </si>
-  <si>
-    <t>SEGUIMIENTO Y MONITOREO DE PROYECTOS DE INVERSION A NIVEL NACIONAL</t>
-  </si>
-  <si>
-    <t>PROYECTOS DE INVERSION A NIVEL NACIONAL EN EJECUCIÓN CON SEGUIMIENTOS</t>
-  </si>
-  <si>
-    <t>Nº DE SEGUIMIENTOS A PROYECTOS DE INVERSIÓN REALIZADOS</t>
-  </si>
-  <si>
-    <t>CAPACITACIÓN DEL PERSONAL DE ADM REGIONALES Y DISTRITALES EN EL SISTEMA DE PROGRAMACION DE OPERACIONES</t>
-  </si>
-  <si>
-    <t>PERSONAL CAPACITADO EN EL SISTEMA DEL SPO</t>
-  </si>
-  <si>
-    <t>Nº DE EVENTOS DE CAPACITACIÓN REALIZADOS</t>
-  </si>
-  <si>
-    <t>CAPACITACIÓN DEL PERSONAL DEL DEPARTAMENTO NAL. PLANIFICACIÓN.</t>
-  </si>
-  <si>
-    <t>PERSONAL DEL DEPARTAMENTO CON DESARROLLO DE CAPACIDADES</t>
-  </si>
-  <si>
-    <t>REVISIÓN CONSENSUADA DE NORMAS (REGLAMENTOS Y MANUALES)</t>
-  </si>
-  <si>
-    <t>NORMATIVA INSTITUCIONAL ELABORADA</t>
-  </si>
-  <si>
-    <t>Nº DE NORMAS CONSENSUADAS</t>
-  </si>
-  <si>
-    <t>CAPACITACIÓN DEL PERSONAL DE ADM REGIONALES Y DISTRITALES EN PROYECTOS DE INVERSION</t>
-  </si>
-  <si>
-    <t>PERSONAL CAPACITADO EN PROYECTOS DE INVERSION</t>
-  </si>
-  <si>
-    <t>MONITOREO A LA EJECUCIÓN  DEL POA DE LA CNS</t>
-  </si>
-  <si>
-    <t>POA EJECUTADO</t>
-  </si>
-  <si>
-    <t>N° DE MONITOREOS REALIZADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACITACIÓN  PARA EL MONITOREO DE LA EJECUCION DEL POA </t>
-  </si>
-  <si>
-    <t>PERSONAL CAPACITADO</t>
-  </si>
-  <si>
-    <t>AJUSTE DEL MANUAL DE ORGANIZACIÓN DE FUNCIONES</t>
-  </si>
-  <si>
-    <t>FORMALIZACION DE LA ESTRUCTURA ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t>Nº DE MANUALES DE ORGANIZACIÓN Y FUNCIONES AJUSTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VINCULACION DE LOS SISTEMAS DE PLANIFICACIÓN, PRESUPUESTOS Y COMPRAS DE LA C.N.S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMAS VINCULADOS </t>
-  </si>
-  <si>
-    <t>No DE SISTEMAS VINCULADOS</t>
-  </si>
-  <si>
-    <t>AUTOMATIZACION DE LOS PROCESOS Y PROCEDIMIENTOS  INSTITUCIONALES</t>
-  </si>
-  <si>
-    <t>PROCEDIMIENTOS AUTOMATIZADOS</t>
-  </si>
-  <si>
-    <t>No DE  SISTEMA DESARROLLADOS</t>
-  </si>
-  <si>
-    <t>FUNCIONAMIENTO OPERATIVO</t>
-  </si>
-  <si>
-    <t>EJECUCION DE PRESUPUESTO</t>
-  </si>
-  <si>
-    <t>% DE EJECUCION PRESUPUESTARIA</t>
-  </si>
-  <si>
-    <t>INFORME DE EVALUACION REMITIDO A LA GERENCIA GENERAL</t>
-  </si>
-  <si>
-    <t>INFORME DE EVALUACIÓN TRIMESTRAL REMITIDO A GERENCIA GENERAL</t>
-  </si>
-  <si>
-    <t>RESOLUCION DE DIRECTORIO - RESUMEN EJECUTIVO POA 2021</t>
-  </si>
-  <si>
-    <t>INFORME DE EVALUACION DEL PEI 2'016 - 2020 REMITIDO A LA GERENCIA GENERAL.</t>
-  </si>
-  <si>
-    <t>DOCUMENTO PEI REMITIDO A LA CABEZA DE SECTOR</t>
-  </si>
-  <si>
-    <t>ACTA DE ACCIONES CORRECTIVAS FIRMADAS POR LAS REGIONALES CON SEGUIMIENTO</t>
-  </si>
-  <si>
-    <t>INFORME DE SEGUIMIENTO REMITIDO A LA GERENCIA GENERAL</t>
-  </si>
-  <si>
-    <t>INFORME DEL EVENTO - LISTA DE PARTICIPANTES</t>
-  </si>
-  <si>
-    <t>CERTIFICADO DE APROBACIÓN</t>
-  </si>
-  <si>
-    <t>ACTA DE CONFORMIDAD DEL DOCUMENTO NOTA DE REMISION A GERENCIA GENEAL</t>
-  </si>
-  <si>
-    <t>LISTA DE CAPACITACIÓN</t>
-  </si>
-  <si>
-    <t>DOCUMENTO REMITIDO A GERENCIA GENERAL CON INFORME TECNICO</t>
-  </si>
-  <si>
-    <t>INFORME PROCESO DE PRUEBAS</t>
-  </si>
-  <si>
-    <t>CERTIFICACION PRESUPUESTARIA</t>
   </si>
   <si>
     <r>
@@ -445,8 +248,14 @@
     </r>
   </si>
   <si>
+    <t>LINEA BASE 2020</t>
+  </si>
+  <si>
+    <t>META 2021</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">ACTIVIDAD : </t>
+      <t xml:space="preserve">PROGRAMA : </t>
     </r>
     <r>
       <rPr>
@@ -461,37 +270,16 @@
     </r>
   </si>
   <si>
-    <t>SUB - ACTIVIDAD: DEPARTAMENTO NACIONAL DE PLANIFICACIÓN</t>
+    <t>UNIDAD RESPONSABLE: DEPARTAMENTO NACIONAL DE PLANIFICACIÓN</t>
   </si>
   <si>
-    <t>6.3.1</t>
+    <t>COD OPE</t>
   </si>
   <si>
-    <t>2.1.3</t>
+    <t>ACCION DE CORTO PLAZO</t>
   </si>
   <si>
-    <t>6.1.2</t>
-  </si>
-  <si>
-    <t>7.1.1.</t>
-  </si>
-  <si>
-    <t>8.1.2</t>
-  </si>
-  <si>
-    <t>LINEA BASE 2020</t>
-  </si>
-  <si>
-    <t>META 2021</t>
-  </si>
-  <si>
-    <t>REPORTE SISTEMA</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>REPORTE DE SISTEMA PILOTO</t>
+    <t>COD ACP</t>
   </si>
 </sst>
 </file>
@@ -502,7 +290,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -693,12 +481,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -712,7 +494,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,6 +743,33 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,9 +777,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,38 +803,8 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -1061,27 +843,7 @@
     <cellStyle name="Porcentual 2" xfId="12"/>
     <cellStyle name="texto" xfId="13"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1189,23 +951,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>86936</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>75333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>227167</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>17859</xdr:rowOff>
+      <xdr:colOff>22118</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>65485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1227,8 +989,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86936" y="158677"/>
-          <a:ext cx="473606" cy="519979"/>
+          <a:off x="0" y="158677"/>
+          <a:ext cx="403118" cy="442589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1240,12 +1002,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>124810</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>29765</xdr:rowOff>
@@ -1255,7 +1017,7 @@
         <xdr:cNvPr id="7" name="Conector recto 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,12 +1059,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>119555</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>886239</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>119555</xdr:rowOff>
@@ -1312,7 +1074,7 @@
         <xdr:cNvPr id="8" name="Conector recto 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,13 +1115,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>58264</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>155941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>836543</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
@@ -1369,7 +1131,7 @@
         <xdr:cNvPr id="9" name="CuadroTexto 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2923,7 +2685,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3132,1561 +2894,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" customWidth="1"/>
-    <col min="13" max="24" width="2.7109375" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="23" width="2.7109375" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="3"/>
-      <c r="E1" s="3"/>
+    <row r="1" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="3"/>
-      <c r="E2" s="3"/>
+    <row r="2" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="D3" s="24" t="s">
+    <row r="3" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
-      <c r="D4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+    <row r="4" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
-      <c r="D5" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+    <row r="5" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
-      <c r="D6" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+    <row r="6" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="3"/>
-      <c r="D7" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+    <row r="7" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="21"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="12"/>
-    </row>
-    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="27">
-        <v>15</v>
-      </c>
-      <c r="D11" s="27">
-        <v>15</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="28">
-        <v>0</v>
-      </c>
-      <c r="L11" s="30">
-        <v>1</v>
-      </c>
-      <c r="M11" s="28">
-        <v>0</v>
-      </c>
-      <c r="N11" s="29">
-        <v>1</v>
-      </c>
-      <c r="O11" s="28">
-        <v>0</v>
-      </c>
-      <c r="P11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="28">
-        <v>0</v>
-      </c>
-      <c r="R11" s="28">
-        <v>0</v>
-      </c>
-      <c r="S11" s="28">
-        <v>0</v>
-      </c>
-      <c r="T11" s="28">
-        <v>0</v>
-      </c>
-      <c r="U11" s="28">
-        <v>0</v>
-      </c>
-      <c r="V11" s="28">
-        <v>0</v>
-      </c>
-      <c r="W11" s="28">
-        <v>0</v>
-      </c>
-      <c r="X11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="27">
-        <v>15</v>
-      </c>
-      <c r="D12" s="27">
-        <v>15</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="28">
-        <v>0</v>
-      </c>
-      <c r="L12" s="30">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
         <v>3</v>
       </c>
-      <c r="M12" s="28">
-        <v>0</v>
-      </c>
-      <c r="N12" s="28">
-        <v>0</v>
-      </c>
-      <c r="O12" s="28">
-        <v>0</v>
-      </c>
-      <c r="P12" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="28">
-        <v>0</v>
-      </c>
-      <c r="R12" s="28">
-        <v>0</v>
-      </c>
-      <c r="S12" s="29">
-        <v>1</v>
-      </c>
-      <c r="T12" s="28">
-        <v>0</v>
-      </c>
-      <c r="U12" s="28">
-        <v>0</v>
-      </c>
-      <c r="V12" s="29">
-        <v>1</v>
-      </c>
-      <c r="W12" s="28">
-        <v>0</v>
-      </c>
-      <c r="X12" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="13"/>
     </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="27">
-        <v>15</v>
-      </c>
-      <c r="D13" s="27">
-        <v>15</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33">
-        <v>3</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="28">
-        <v>0</v>
-      </c>
-      <c r="L13" s="30">
-        <v>1</v>
-      </c>
-      <c r="M13" s="28">
-        <v>0</v>
-      </c>
-      <c r="N13" s="28">
-        <v>0</v>
-      </c>
-      <c r="O13" s="28">
-        <v>0</v>
-      </c>
-      <c r="P13" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>0</v>
-      </c>
-      <c r="R13" s="28">
-        <v>0</v>
-      </c>
-      <c r="S13" s="28">
-        <v>0</v>
-      </c>
-      <c r="T13" s="28">
-        <v>0</v>
-      </c>
-      <c r="U13" s="29">
-        <v>1</v>
-      </c>
-      <c r="V13" s="28">
-        <v>0</v>
-      </c>
-      <c r="W13" s="28">
-        <v>0</v>
-      </c>
-      <c r="X13" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="27">
-        <v>15</v>
-      </c>
-      <c r="D14" s="27">
-        <v>15</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
         <v>4</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="28">
-        <v>0</v>
-      </c>
-      <c r="L14" s="30">
-        <v>1</v>
-      </c>
-      <c r="M14" s="28">
-        <v>0</v>
-      </c>
-      <c r="N14" s="28">
-        <v>0</v>
-      </c>
-      <c r="O14" s="28">
-        <v>0</v>
-      </c>
-      <c r="P14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>0</v>
-      </c>
-      <c r="R14" s="29">
-        <v>1</v>
-      </c>
-      <c r="S14" s="28">
-        <v>0</v>
-      </c>
-      <c r="T14" s="28">
-        <v>0</v>
-      </c>
-      <c r="U14" s="28">
-        <v>0</v>
-      </c>
-      <c r="V14" s="28">
-        <v>0</v>
-      </c>
-      <c r="W14" s="28">
-        <v>0</v>
-      </c>
-      <c r="X14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="27">
-        <v>15</v>
-      </c>
-      <c r="D15" s="27">
-        <v>15</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33">
-        <v>5</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="28">
-        <v>0</v>
-      </c>
-      <c r="L15" s="30">
-        <v>1</v>
-      </c>
-      <c r="M15" s="28">
-        <v>0</v>
-      </c>
-      <c r="N15" s="28">
-        <v>0</v>
-      </c>
-      <c r="O15" s="28">
-        <v>0</v>
-      </c>
-      <c r="P15" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="28">
-        <v>0</v>
-      </c>
-      <c r="R15" s="28">
-        <v>0</v>
-      </c>
-      <c r="S15" s="29">
-        <v>1</v>
-      </c>
-      <c r="T15" s="28">
-        <v>0</v>
-      </c>
-      <c r="U15" s="28">
-        <v>0</v>
-      </c>
-      <c r="V15" s="28">
-        <v>0</v>
-      </c>
-      <c r="W15" s="28">
-        <v>0</v>
-      </c>
-      <c r="X15" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="27">
-        <v>15</v>
-      </c>
-      <c r="D16" s="27">
-        <v>15</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33">
-        <v>6</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="28">
-        <v>0</v>
-      </c>
-      <c r="L16" s="30">
-        <v>9</v>
-      </c>
-      <c r="M16" s="28">
-        <v>0</v>
-      </c>
-      <c r="N16" s="28">
-        <v>0</v>
-      </c>
-      <c r="O16" s="28">
-        <v>0</v>
-      </c>
-      <c r="P16" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>1</v>
-      </c>
-      <c r="R16" s="29">
-        <v>1</v>
-      </c>
-      <c r="S16" s="29">
-        <v>1</v>
-      </c>
-      <c r="T16" s="29">
-        <v>1</v>
-      </c>
-      <c r="U16" s="29">
-        <v>1</v>
-      </c>
-      <c r="V16" s="29">
-        <v>1</v>
-      </c>
-      <c r="W16" s="29">
-        <v>2</v>
-      </c>
-      <c r="X16" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="27">
-        <v>3</v>
-      </c>
-      <c r="D17" s="27">
-        <v>3</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33">
-        <v>7</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="28">
-        <v>0</v>
-      </c>
-      <c r="L17" s="30">
-        <v>9</v>
-      </c>
-      <c r="M17" s="28">
-        <v>0</v>
-      </c>
-      <c r="N17" s="28">
-        <v>0</v>
-      </c>
-      <c r="O17" s="29">
-        <v>1</v>
-      </c>
-      <c r="P17" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>1</v>
-      </c>
-      <c r="R17" s="29">
-        <v>1</v>
-      </c>
-      <c r="S17" s="29">
-        <v>1</v>
-      </c>
-      <c r="T17" s="29">
-        <v>1</v>
-      </c>
-      <c r="U17" s="29">
-        <v>1</v>
-      </c>
-      <c r="V17" s="29">
-        <v>1</v>
-      </c>
-      <c r="W17" s="29">
-        <v>1</v>
-      </c>
-      <c r="X17" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="27">
-        <v>13</v>
-      </c>
-      <c r="D18" s="27">
-        <v>13</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33">
-        <v>8</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="28">
-        <v>0</v>
-      </c>
-      <c r="L18" s="30">
-        <v>2</v>
-      </c>
-      <c r="M18" s="28">
-        <v>0</v>
-      </c>
-      <c r="N18" s="28">
-        <v>0</v>
-      </c>
-      <c r="O18" s="28">
-        <v>0</v>
-      </c>
-      <c r="P18" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="28">
-        <v>0</v>
-      </c>
-      <c r="R18" s="28">
-        <v>0</v>
-      </c>
-      <c r="S18" s="29">
-        <v>2</v>
-      </c>
-      <c r="T18" s="28">
-        <v>0</v>
-      </c>
-      <c r="U18" s="28">
-        <v>0</v>
-      </c>
-      <c r="V18" s="28">
-        <v>0</v>
-      </c>
-      <c r="W18" s="28">
-        <v>0</v>
-      </c>
-      <c r="X18" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="27">
-        <v>12</v>
-      </c>
-      <c r="D19" s="27">
-        <v>12</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33">
-        <v>9</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="28">
-        <v>0</v>
-      </c>
-      <c r="L19" s="30">
-        <v>2</v>
-      </c>
-      <c r="M19" s="28">
-        <v>0</v>
-      </c>
-      <c r="N19" s="28">
-        <v>0</v>
-      </c>
-      <c r="O19" s="28">
-        <v>0</v>
-      </c>
-      <c r="P19" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="28">
-        <v>0</v>
-      </c>
-      <c r="R19" s="29">
-        <v>1</v>
-      </c>
-      <c r="S19" s="28">
-        <v>0</v>
-      </c>
-      <c r="T19" s="28">
-        <v>0</v>
-      </c>
-      <c r="U19" s="28">
-        <v>0</v>
-      </c>
-      <c r="V19" s="28">
-        <v>0</v>
-      </c>
-      <c r="W19" s="28">
-        <v>0</v>
-      </c>
-      <c r="X19" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" ht="33" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="27">
-        <v>13</v>
-      </c>
-      <c r="D20" s="27">
-        <v>13</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33">
-        <v>10</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="28">
-        <v>0</v>
-      </c>
-      <c r="L20" s="30">
-        <v>21</v>
-      </c>
-      <c r="M20" s="28">
-        <v>0</v>
-      </c>
-      <c r="N20" s="28">
-        <v>0</v>
-      </c>
-      <c r="O20" s="28">
-        <v>0</v>
-      </c>
-      <c r="P20" s="29">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>0</v>
-      </c>
-      <c r="R20" s="28">
-        <v>0</v>
-      </c>
-      <c r="S20" s="28">
-        <v>5</v>
-      </c>
-      <c r="T20" s="28">
-        <v>0</v>
-      </c>
-      <c r="U20" s="28">
-        <v>0</v>
-      </c>
-      <c r="V20" s="28">
-        <v>5</v>
-      </c>
-      <c r="W20" s="28">
-        <v>0</v>
-      </c>
-      <c r="X20" s="28">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="27">
-        <v>12</v>
-      </c>
-      <c r="D21" s="27">
-        <v>12</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33">
-        <v>11</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="28">
-        <v>0</v>
-      </c>
-      <c r="L21" s="30">
-        <v>2</v>
-      </c>
-      <c r="M21" s="28">
-        <v>0</v>
-      </c>
-      <c r="N21" s="28">
-        <v>0</v>
-      </c>
-      <c r="O21" s="28">
-        <v>0</v>
-      </c>
-      <c r="P21" s="28">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="28">
-        <v>0</v>
-      </c>
-      <c r="R21" s="28">
-        <v>0</v>
-      </c>
-      <c r="S21" s="28">
-        <v>0</v>
-      </c>
-      <c r="T21" s="28">
-        <v>0</v>
-      </c>
-      <c r="U21" s="28">
-        <v>0</v>
-      </c>
-      <c r="V21" s="28">
-        <v>0</v>
-      </c>
-      <c r="W21" s="28">
-        <v>0</v>
-      </c>
-      <c r="X21" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="27">
-        <v>12</v>
-      </c>
-      <c r="D22" s="27">
-        <v>12</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33">
-        <v>12</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="28">
-        <v>0</v>
-      </c>
-      <c r="L22" s="30">
-        <v>11</v>
-      </c>
-      <c r="M22" s="28">
-        <v>0</v>
-      </c>
-      <c r="N22" s="29">
-        <v>1</v>
-      </c>
-      <c r="O22" s="29">
-        <v>1</v>
-      </c>
-      <c r="P22" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>1</v>
-      </c>
-      <c r="R22" s="29">
-        <v>1</v>
-      </c>
-      <c r="S22" s="29">
-        <v>1</v>
-      </c>
-      <c r="T22" s="29">
-        <v>1</v>
-      </c>
-      <c r="U22" s="29">
-        <v>1</v>
-      </c>
-      <c r="V22" s="29">
-        <v>1</v>
-      </c>
-      <c r="W22" s="29">
-        <v>1</v>
-      </c>
-      <c r="X22" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="27">
-        <v>12</v>
-      </c>
-      <c r="D23" s="27">
-        <v>12</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33">
-        <v>13</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="28">
-        <v>0</v>
-      </c>
-      <c r="L23" s="30">
-        <v>2</v>
-      </c>
-      <c r="M23" s="29">
-        <v>2</v>
-      </c>
-      <c r="N23" s="28">
-        <v>0</v>
-      </c>
-      <c r="O23" s="28">
-        <v>0</v>
-      </c>
-      <c r="P23" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="28">
-        <v>0</v>
-      </c>
-      <c r="R23" s="28">
-        <v>0</v>
-      </c>
-      <c r="S23" s="28">
-        <v>0</v>
-      </c>
-      <c r="T23" s="28">
-        <v>0</v>
-      </c>
-      <c r="U23" s="28">
-        <v>0</v>
-      </c>
-      <c r="V23" s="28">
-        <v>0</v>
-      </c>
-      <c r="W23" s="28">
-        <v>0</v>
-      </c>
-      <c r="X23" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="27">
-        <v>13</v>
-      </c>
-      <c r="D24" s="27">
-        <v>13</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33">
-        <v>14</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="28">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30">
-        <v>1</v>
-      </c>
-      <c r="M24" s="28">
-        <v>0</v>
-      </c>
-      <c r="N24" s="28">
-        <v>0</v>
-      </c>
-      <c r="O24" s="29">
-        <v>0</v>
-      </c>
-      <c r="P24" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="28">
-        <v>0</v>
-      </c>
-      <c r="R24" s="28">
-        <v>0</v>
-      </c>
-      <c r="S24" s="28">
-        <v>0</v>
-      </c>
-      <c r="T24" s="28">
-        <v>0</v>
-      </c>
-      <c r="U24" s="28">
-        <v>0</v>
-      </c>
-      <c r="V24" s="28">
-        <v>0</v>
-      </c>
-      <c r="W24" s="28">
-        <v>0</v>
-      </c>
-      <c r="X24" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="27">
-        <v>9</v>
-      </c>
-      <c r="D25" s="27">
-        <v>9</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33">
-        <v>15</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="28">
-        <v>0</v>
-      </c>
-      <c r="L25" s="30">
-        <v>1</v>
-      </c>
-      <c r="M25" s="28">
-        <v>0</v>
-      </c>
-      <c r="N25" s="28">
-        <v>0</v>
-      </c>
-      <c r="O25" s="28">
-        <v>0</v>
-      </c>
-      <c r="P25" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="28">
-        <v>0</v>
-      </c>
-      <c r="R25" s="28">
-        <v>0</v>
-      </c>
-      <c r="S25" s="28">
-        <v>0</v>
-      </c>
-      <c r="T25" s="28">
-        <v>0</v>
-      </c>
-      <c r="U25" s="28">
-        <v>0</v>
-      </c>
-      <c r="V25" s="28">
-        <v>0</v>
-      </c>
-      <c r="W25" s="28">
-        <v>0</v>
-      </c>
-      <c r="X25" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="27">
-        <v>9</v>
-      </c>
-      <c r="D26" s="27">
-        <v>9</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33">
-        <v>16</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" s="28">
-        <v>0</v>
-      </c>
-      <c r="L26" s="30">
-        <v>1</v>
-      </c>
-      <c r="M26" s="28">
-        <v>0</v>
-      </c>
-      <c r="N26" s="28">
-        <v>0</v>
-      </c>
-      <c r="O26" s="28">
-        <v>0</v>
-      </c>
-      <c r="P26" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="28">
-        <v>0</v>
-      </c>
-      <c r="R26" s="28">
-        <v>0</v>
-      </c>
-      <c r="S26" s="28">
-        <v>0</v>
-      </c>
-      <c r="T26" s="28">
-        <v>0</v>
-      </c>
-      <c r="U26" s="28">
-        <v>0</v>
-      </c>
-      <c r="V26" s="28">
-        <v>0</v>
-      </c>
-      <c r="W26" s="28">
-        <v>0</v>
-      </c>
-      <c r="X26" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="27">
-        <v>15</v>
-      </c>
-      <c r="D27" s="27">
-        <v>15</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33">
-        <v>17</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="28">
-        <v>0</v>
-      </c>
-      <c r="L27" s="30">
-        <v>100</v>
-      </c>
-      <c r="M27" s="29">
-        <v>8</v>
-      </c>
-      <c r="N27" s="29">
-        <v>4</v>
-      </c>
-      <c r="O27" s="29">
-        <v>26</v>
-      </c>
-      <c r="P27" s="29">
-        <v>14</v>
-      </c>
-      <c r="Q27" s="29">
-        <v>5</v>
-      </c>
-      <c r="R27" s="29">
-        <v>7</v>
-      </c>
-      <c r="S27" s="29">
-        <v>11</v>
-      </c>
-      <c r="T27" s="29">
-        <v>10</v>
-      </c>
-      <c r="U27" s="29">
-        <v>4</v>
-      </c>
-      <c r="V27" s="29">
-        <v>4</v>
-      </c>
-      <c r="W27" s="29">
-        <v>4</v>
-      </c>
-      <c r="X27" s="29">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="28" t="s">
-        <v>89</v>
-      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="Z9:Z10"/>
+  <mergeCells count="15">
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:W9"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:X9"/>
-    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y11:Y18">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+  <conditionalFormatting sqref="X11:X14">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19:Y20">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y25">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"O"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9"/>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
